--- a/KGID/ExcelTemplate/FileUpload/Book2.xlsx
+++ b/KGID/ExcelTemplate/FileUpload/Book2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>Proposer DDO Code</t>
   </si>
@@ -182,43 +182,49 @@
     <t>MALLUS</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>FIRE FIGHTERS</t>
-  </si>
-  <si>
-    <t>14024O</t>
-  </si>
-  <si>
-    <t>CAG1653</t>
-  </si>
-  <si>
-    <t>TATA MOTORS LTD</t>
-  </si>
-  <si>
-    <t>CLOSED</t>
-  </si>
-  <si>
-    <t>FIRE STATION OFFICER</t>
-  </si>
-  <si>
-    <t>KAR. STATE FIRE &amp;</t>
-  </si>
-  <si>
-    <t>14004O</t>
-  </si>
-  <si>
-    <t>CAG1655</t>
-  </si>
-  <si>
-    <t>692D021184028</t>
-  </si>
-  <si>
-    <t>CLOSED BODY</t>
-  </si>
-  <si>
-    <t>KAR. STATE FIRE &amp; EMERGENCY</t>
+    <t>BONUS</t>
+  </si>
+  <si>
+    <t>Maruthi</t>
+  </si>
+  <si>
+    <t>MARUTHI</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ADMINISTRATIVE OFFICER,</t>
+  </si>
+  <si>
+    <t>NCC DIRECTORATE (NCC CELL)</t>
+  </si>
+  <si>
+    <t>KA05G6361</t>
+  </si>
+  <si>
+    <t>U3S5C0HB258096</t>
+  </si>
+  <si>
+    <t>ME3U3S5C0HB258096</t>
+  </si>
+  <si>
+    <t>ROYAL-ENFIELD (UNIT OF EICHER LTD)</t>
+  </si>
+  <si>
+    <t>SOLO</t>
+  </si>
+  <si>
+    <t>ROYAL ENFIELD</t>
+  </si>
+  <si>
+    <t>DISTRICT FIRE STATION OFFICER,</t>
+  </si>
+  <si>
+    <t>KAR. ST. FIRE &amp; EMERGENCY</t>
+  </si>
+  <si>
+    <t>MARRON</t>
   </si>
 </sst>
 </file>
@@ -582,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C8:C9"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,89 +798,83 @@
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
       <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="J2" s="7">
-        <v>30993</v>
+        <v>39553</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="M2">
-        <v>176038</v>
+        <v>1079316</v>
       </c>
       <c r="N2">
-        <v>184026</v>
+        <v>104548</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q2">
-        <v>3150</v>
+        <v>1300</v>
       </c>
       <c r="R2">
-        <v>6</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T2" s="7">
-        <v>30682</v>
+        <v>39448</v>
       </c>
       <c r="U2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>1</v>
       </c>
       <c r="X2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Y2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AC2">
-        <v>72690</v>
+        <v>1215861</v>
       </c>
       <c r="AD2">
-        <v>7732</v>
+        <v>6055</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>43700</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>44065</v>
       </c>
       <c r="AG2" s="7">
-        <v>44245</v>
+        <v>43700</v>
       </c>
       <c r="AH2" s="7">
-        <v>44609</v>
+        <v>44065</v>
       </c>
       <c r="AI2">
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>526512</v>
       </c>
       <c r="AO2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AP2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -882,9 +882,7 @@
       <c r="AR2" t="s">
         <v>50</v>
       </c>
-      <c r="AT2" s="7">
-        <v>43104</v>
-      </c>
+      <c r="AT2" s="7"/>
       <c r="AU2">
         <v>0</v>
       </c>
@@ -895,78 +893,81 @@
         <v>0</v>
       </c>
       <c r="AX2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="7">
+        <v>42825</v>
+      </c>
+      <c r="L3">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" t="s">
         <v>60</v>
       </c>
-      <c r="H3">
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3">
+        <v>346</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="7">
-        <v>30993</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N3">
-        <v>344052176054</v>
-      </c>
-      <c r="O3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q3">
-        <v>1800</v>
-      </c>
-      <c r="R3">
-        <v>6</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
       <c r="T3" s="7">
-        <v>30682</v>
+        <v>42767</v>
       </c>
       <c r="U3">
-        <v>10975</v>
+        <v>350</v>
       </c>
       <c r="V3">
         <v>1</v>
       </c>
       <c r="X3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="Z3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="AB3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AC3">
-        <v>72691</v>
+        <v>1232229</v>
       </c>
       <c r="AD3">
-        <v>10156</v>
+        <v>2965</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>44243</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>44607</v>
       </c>
       <c r="AG3" s="7">
-        <v>43855</v>
+        <v>44243</v>
       </c>
       <c r="AH3" s="7">
-        <v>44220</v>
+        <v>44607</v>
       </c>
       <c r="AI3">
         <v>30</v>
@@ -975,22 +976,25 @@
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>102853</v>
       </c>
       <c r="AO3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AP3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR3" t="s">
         <v>50</v>
       </c>
+      <c r="AS3" t="s">
+        <v>66</v>
+      </c>
       <c r="AT3" s="7">
-        <v>44583</v>
+        <v>48303</v>
       </c>
       <c r="AU3">
         <v>0</v>
